--- a/import/Symptoms.xlsx
+++ b/import/Symptoms.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="301">
   <si>
     <t>s.aspect</t>
   </si>
@@ -794,123 +794,6 @@
     <t>SYM_27350897-1e31-4244-82bb-883432ff0513</t>
   </si>
   <si>
-    <t>ticketObjectTest</t>
-  </si>
-  <si>
-    <t>SYM_69b7a502-eda5-4c6d-89c5-f1b972b3a72b</t>
-  </si>
-  <si>
-    <t>No My Account Access Attempts - null</t>
-  </si>
-  <si>
-    <t>SYM_17f4b597-d30e-4e12-a922-d73a45043999</t>
-  </si>
-  <si>
-    <t>APT - Service with no Equipment</t>
-  </si>
-  <si>
-    <t>SYM_4f8eabb5-0a10-4dad-8c37-a75ff1b7a29d</t>
-  </si>
-  <si>
-    <t>OZ - PHT - PHY Rate &lt; 160</t>
-  </si>
-  <si>
-    <t>SYM_88c277ab-291d-4b59-ba49-d0d8ce64c25f</t>
-  </si>
-  <si>
-    <t>OZ - PHT - PHY Rate &lt; 180</t>
-  </si>
-  <si>
-    <t>SYM_ca8762de-f7a1-48f8-8b92-53da9031853b</t>
-  </si>
-  <si>
-    <t>Daves Symptom</t>
-  </si>
-  <si>
-    <t>SYM_94518181-e18b-4908-a4df-35d9ae62874c</t>
-  </si>
-  <si>
-    <t>Ticket</t>
-  </si>
-  <si>
-    <t>SYM_f9f9c913-553a-402f-859c-f1f90a9c3c2d</t>
-  </si>
-  <si>
-    <t>TestAlternatePhone</t>
-  </si>
-  <si>
-    <t>SYM_6fd4b7a1-acfd-4e26-87a7-c677dd094854</t>
-  </si>
-  <si>
-    <t>testing purpose</t>
-  </si>
-  <si>
-    <t>Warm Xfer</t>
-  </si>
-  <si>
-    <t>SYM_0618869b-d90e-478d-b1de-751333479747</t>
-  </si>
-  <si>
-    <t>Account Promise To Pay</t>
-  </si>
-  <si>
-    <t>SYM_07835ba9-311f-4ee0-aa9e-27632281be68</t>
-  </si>
-  <si>
-    <t>Account number is 778899</t>
-  </si>
-  <si>
-    <t>SYM_56bab0f5-dbfd-4073-85c3-fae3ea1156d5</t>
-  </si>
-  <si>
-    <t>Has CDV Service by Market</t>
-  </si>
-  <si>
-    <t>SYM_cbf6775b-1f09-4ac1-971b-9ff86bd54c36</t>
-  </si>
-  <si>
-    <t>NCOE Tier 2 - Internet</t>
-  </si>
-  <si>
-    <t>SYM_bda92f38-31d4-478c-803b-a1c98128006d</t>
-  </si>
-  <si>
-    <t>NCOE Tier 2 - Video</t>
-  </si>
-  <si>
-    <t>SYM_ac135efe-907e-4109-928b-103e3a41da31</t>
-  </si>
-  <si>
-    <t>NCOE Tier 2 - X1</t>
-  </si>
-  <si>
-    <t>SYM_4c3680e9-b1d0-4c3f-817f-3d157750499d</t>
-  </si>
-  <si>
-    <t>NCOE Tier 2 - Voice</t>
-  </si>
-  <si>
-    <t>SYM_7863d2f2-9357-431a-bdf8-641380683aae</t>
-  </si>
-  <si>
-    <t>NCOE Tier 3 ACES Internet</t>
-  </si>
-  <si>
-    <t>SYM_532ca04d-6ca7-454e-9d4d-e423289646b0</t>
-  </si>
-  <si>
-    <t>Tier 3 ACES Voice</t>
-  </si>
-  <si>
-    <t>SYM_42c1caa7-91ee-43f7-842e-c6f43069ceb3</t>
-  </si>
-  <si>
-    <t>Tier 3 ACES X1</t>
-  </si>
-  <si>
-    <t>SYM_bea77d09-e3d5-41be-8547-ceebcf17426f</t>
-  </si>
-  <si>
     <t>Bootfile Mismatch - No Walled</t>
   </si>
   <si>
@@ -938,45 +821,6 @@
     <t>Test Symptom for UI 360</t>
   </si>
   <si>
-    <t>Tier 3 ACES X1 - Override</t>
-  </si>
-  <si>
-    <t>SYM_08454aff-5b12-429c-aaaa-aa9eed503672</t>
-  </si>
-  <si>
-    <t>NPS Has CDV Service</t>
-  </si>
-  <si>
-    <t>SYM_850f3b55-2220-497b-a31c-e5d0f1ba6705</t>
-  </si>
-  <si>
-    <t>ticket assigned</t>
-  </si>
-  <si>
-    <t>SYM_1ec45e83-f1af-41e9-9356-f6a68f07c6e4</t>
-  </si>
-  <si>
-    <t>Region_Beltway</t>
-  </si>
-  <si>
-    <t>SYM_ec3b326e-9a48-46d6-b185-769b0f17e502</t>
-  </si>
-  <si>
-    <t>VAssist_EcoBill_Not_Enabled</t>
-  </si>
-  <si>
-    <t>SYM_3cc358fa-5af1-44fa-a90d-0ce52f63cc56</t>
-  </si>
-  <si>
-    <t>Account is Paper</t>
-  </si>
-  <si>
-    <t>Planned Outage</t>
-  </si>
-  <si>
-    <t>SYM_8c73ccd1-e06e-4cfd-8788-35651125ce36</t>
-  </si>
-  <si>
     <t>Door Sensor Low Battery</t>
   </si>
   <si>
@@ -1083,87 +927,6 @@
   </si>
   <si>
     <t>SYM_e781fa60-4e4d-4983-be51-f34df66e7700</t>
-  </si>
-  <si>
-    <t>NCOE Tier 2 - Internet - Override</t>
-  </si>
-  <si>
-    <t>SYM_b5f23db3-ed7b-4af8-b997-7a913a377b5d</t>
-  </si>
-  <si>
-    <t>NCOE Tier 2 - Video - Override</t>
-  </si>
-  <si>
-    <t>SYM_4a8b69a4-1f54-488b-877b-df2859050073</t>
-  </si>
-  <si>
-    <t>NCOE Tier 2 - X1 - Override</t>
-  </si>
-  <si>
-    <t>SYM_ebe0a6af-b123-40a3-8a99-dd315c9d4f23</t>
-  </si>
-  <si>
-    <t>NCOE Tier 2 - Voice - Override</t>
-  </si>
-  <si>
-    <t>SYM_ffed56f6-a9bf-45a8-897b-9f7c6cef18e3</t>
-  </si>
-  <si>
-    <t>NCOE Tier 3 ACES Internet - Override</t>
-  </si>
-  <si>
-    <t>SYM_4992dd47-271f-46f6-9998-c86c61e1106c</t>
-  </si>
-  <si>
-    <t>Tier 3 ACES Voice - Override</t>
-  </si>
-  <si>
-    <t>SYM_df867b82-853c-4393-9924-cf00e1df9847</t>
-  </si>
-  <si>
-    <t>Seasonal Suspend State Found - Northeast</t>
-  </si>
-  <si>
-    <t>SYM_8d05fe11-7681-4b6c-9c6f-2b8df2e879d9</t>
-  </si>
-  <si>
-    <t>newaccountrecommendation</t>
-  </si>
-  <si>
-    <t>SYM_5b39fb2d-ba8c-46bc-b036-102d9b7ddef0</t>
-  </si>
-  <si>
-    <t>qavalidation</t>
-  </si>
-  <si>
-    <t>newversion</t>
-  </si>
-  <si>
-    <t>SYM_233231d5-43a7-4ba1-9cca-6a48ac28e1c7</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>Seasonal Suspend State Found - Central</t>
-  </si>
-  <si>
-    <t>SYM_1bcd255c-e60e-46f5-b6f5-6f1a98ca47cf</t>
-  </si>
-  <si>
-    <t>Seasonal Suspend State Found - West</t>
-  </si>
-  <si>
-    <t>SYM_2fd741a1-ec8e-4633-9e52-93758f0b5c87</t>
-  </si>
-  <si>
-    <t>ratecodesymptomnew</t>
-  </si>
-  <si>
-    <t>SYM_767ee7c7-cb80-44ef-bb92-ac4c019ba535</t>
-  </si>
-  <si>
-    <t>descript</t>
   </si>
 </sst>
 </file>
@@ -1255,8 +1018,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1565,10 +1356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E176"/>
+  <dimension ref="A1:E139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection sqref="A1:E139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2799,401 +2590,401 @@
     </row>
     <row r="73" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>150</v>
+        <v>279</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C73" s="2">
-        <v>1</v>
+        <v>280</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>150</v>
+        <v>279</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>152</v>
+        <v>281</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C74" s="2">
-        <v>1</v>
+        <v>282</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>152</v>
+        <v>281</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>7</v>
+        <v>151</v>
+      </c>
+      <c r="C75" s="2">
+        <v>1</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>7</v>
+        <v>153</v>
+      </c>
+      <c r="C76" s="2">
+        <v>1</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E77" s="2" t="s">
+      <c r="C79" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+    <row r="80" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B80" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D78" s="2" t="s">
+      <c r="C80" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E80" s="2" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="306" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="306" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B83" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D81" s="2" t="s">
+      <c r="C83" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E83" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+    <row r="84" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B84" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D82" s="2" t="s">
+      <c r="C84" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E84" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="191.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+    <row r="85" spans="1:5" ht="191.25" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D83" s="2" t="s">
+      <c r="C85" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E85" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="318.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+    <row r="86" spans="1:5" ht="318.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D84" s="2" t="s">
+      <c r="C86" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E86" s="2" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B90" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D88" s="2" t="s">
+      <c r="C90" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E90" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+    <row r="91" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B91" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D89" s="2" t="s">
+      <c r="C91" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="E91" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+    <row r="92" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B92" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D90" s="2" t="s">
+      <c r="C92" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="E92" s="2" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="102" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="102" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B95" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D93" s="2" t="s">
+      <c r="C95" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E95" s="2" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>7</v>
@@ -3202,15 +2993,15 @@
         <v>7</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>7</v>
@@ -3219,15 +3010,15 @@
         <v>7</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>7</v>
@@ -3236,15 +3027,15 @@
         <v>7</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>7</v>
@@ -3253,15 +3044,15 @@
         <v>7</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>7</v>
@@ -3270,15 +3061,15 @@
         <v>7</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>7</v>
@@ -3287,32 +3078,32 @@
         <v>7</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>223</v>
+      <c r="D102" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>7</v>
@@ -3321,32 +3112,32 @@
         <v>7</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D104" s="3" t="s">
-        <v>7</v>
+      <c r="D104" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>7</v>
@@ -3355,49 +3146,49 @@
         <v>7</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C106" s="2">
-        <v>1</v>
+        <v>227</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C107" s="2">
-        <v>0</v>
+        <v>229</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="C108" s="2">
         <v>1</v>
@@ -3406,15 +3197,15 @@
         <v>7</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>237</v>
+        <v>286</v>
       </c>
       <c r="C109" s="2">
         <v>1</v>
@@ -3423,15 +3214,15 @@
         <v>7</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>238</v>
+        <v>287</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>239</v>
+        <v>288</v>
       </c>
       <c r="C110" s="2">
         <v>1</v>
@@ -3440,32 +3231,32 @@
         <v>7</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>238</v>
+        <v>287</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="C111" s="2">
         <v>1</v>
       </c>
-      <c r="D111" s="3" t="s">
-        <v>7</v>
+      <c r="D111" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="127.5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>242</v>
+        <v>289</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>243</v>
+        <v>290</v>
       </c>
       <c r="C112" s="2">
         <v>1</v>
@@ -3474,32 +3265,32 @@
         <v>7</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="178.5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>244</v>
+        <v>294</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>245</v>
+        <v>295</v>
       </c>
       <c r="C113" s="2">
         <v>1</v>
       </c>
-      <c r="D113" s="3" t="s">
-        <v>7</v>
+      <c r="D113" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>244</v>
+        <v>294</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>246</v>
+        <v>297</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>247</v>
+        <v>298</v>
       </c>
       <c r="C114" s="2">
         <v>1</v>
@@ -3508,15 +3299,15 @@
         <v>7</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>246</v>
+        <v>297</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="C115" s="2">
         <v>1</v>
@@ -3525,32 +3316,32 @@
         <v>7</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="C116" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="C117" s="2">
         <v>1</v>
@@ -3559,15 +3350,15 @@
         <v>7</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="C118" s="2">
         <v>1</v>
@@ -3576,15 +3367,15 @@
         <v>7</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="C119" s="2">
         <v>1</v>
@@ -3593,15 +3384,15 @@
         <v>7</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C120" s="2">
         <v>1</v>
@@ -3610,32 +3401,32 @@
         <v>7</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C121" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C122" s="2">
         <v>1</v>
@@ -3644,15 +3435,15 @@
         <v>7</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="C123" s="2">
         <v>1</v>
@@ -3661,15 +3452,15 @@
         <v>7</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="C124" s="2">
         <v>1</v>
@@ -3678,15 +3469,15 @@
         <v>7</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="C125" s="2">
         <v>1</v>
@@ -3695,32 +3486,32 @@
         <v>7</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C126" s="2">
-        <v>0</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>272</v>
+        <v>1</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C127" s="2">
         <v>1</v>
@@ -3729,15 +3520,15 @@
         <v>7</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C128" s="2">
         <v>1</v>
@@ -3746,15 +3537,15 @@
         <v>7</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="C129" s="2">
         <v>1</v>
@@ -3763,32 +3554,32 @@
         <v>7</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C130" s="2">
         <v>1</v>
       </c>
-      <c r="D130" s="3" t="s">
-        <v>7</v>
+      <c r="D130" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="C131" s="2">
         <v>1</v>
@@ -3797,15 +3588,15 @@
         <v>7</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="C132" s="2">
         <v>1</v>
@@ -3814,15 +3605,15 @@
         <v>7</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="C133" s="2">
         <v>1</v>
@@ -3831,15 +3622,15 @@
         <v>7</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C134" s="2">
         <v>1</v>
@@ -3848,15 +3639,15 @@
         <v>7</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C135" s="2">
         <v>1</v>
@@ -3865,15 +3656,15 @@
         <v>7</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>291</v>
+        <v>248</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="C136" s="2">
         <v>1</v>
@@ -3882,15 +3673,15 @@
         <v>7</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>291</v>
+        <v>248</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>293</v>
+        <v>250</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="C137" s="2">
         <v>1</v>
@@ -3899,15 +3690,15 @@
         <v>7</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>293</v>
+        <v>250</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>295</v>
+        <v>252</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>296</v>
+        <v>253</v>
       </c>
       <c r="C138" s="2">
         <v>1</v>
@@ -3916,15 +3707,15 @@
         <v>7</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>295</v>
+        <v>252</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C139" s="2">
         <v>1</v>
@@ -3933,636 +3724,7 @@
         <v>7</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C140" s="2">
-        <v>1</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C141" s="2">
-        <v>1</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C142" s="2">
-        <v>1</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C143" s="2">
-        <v>1</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C144" s="2">
-        <v>1</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C145" s="2">
-        <v>1</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C146" s="2">
-        <v>1</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C147" s="2">
-        <v>1</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C148" s="2">
-        <v>1</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C149" s="2">
-        <v>1</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C150" s="2">
-        <v>1</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C151" s="2">
-        <v>1</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C152" s="2">
-        <v>1</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C153" s="2">
-        <v>1</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C154" s="2">
-        <v>1</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C157" s="2">
-        <v>1</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C158" s="2">
-        <v>1</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C159" s="2">
-        <v>1</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C160" s="2">
-        <v>1</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C161" s="2">
-        <v>1</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A162" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C162" s="2">
-        <v>1</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A163" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C163" s="2">
-        <v>1</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A164" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C164" s="2">
-        <v>1</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A165" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="C165" s="2">
-        <v>1</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A166" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C166" s="2">
-        <v>1</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C167" s="2">
-        <v>1</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C168" s="2">
-        <v>1</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A169" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C169" s="2">
-        <v>1</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A170" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C170" s="2">
-        <v>1</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="C171" s="2">
-        <v>1</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C172" s="2">
-        <v>1</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C173" s="2">
-        <v>1</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C174" s="2">
-        <v>1</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C175" s="2">
-        <v>1</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="C176" s="2">
-        <v>1</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>377</v>
       </c>
     </row>
   </sheetData>
